--- a/biology/Zoologie/Canine/Canine.xlsx
+++ b/biology/Zoologie/Canine/Canine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les canines (ou dents canines) font partie des dents antérieures de la denture des mammifères.
 </t>
@@ -513,15 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Humaines
-Un humain possède quatre canines : deux supérieures et deux inférieures.
+          <t>Humaines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un humain possède quatre canines : deux supérieures et deux inférieures.
 Un humain possède autant de canines lactéales, qui apparaissent vers 20 mois et tombent vers 10-11 ans, que de canines définitives.
 Ce sont les plus postérieures des dents antérieures. Elles sont situées entre les incisives latérales et les premières prémolaires.
 Leur couronne est de forme conique. Elles ne possèdent en général qu'une longue racine. Elle peut atteindre 3 cm. La racine peut être rarement bifide.
-Carnivores
-Les canines sont particulièrement développées chez les carnivores.
-Bovidés
-Chez les bovins, les canines sont morphologiquement semblables aux incisives (on considère parfois que le bovin n'en a pas). Chez le porc (et chez d'autres suidés), les canines possèdent une croissance continue, pouvant aboutir à des défenses.
 </t>
         </is>
       </c>
@@ -547,12 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>Types de canines</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La tradition fantastique attribue des canines pointues et proéminentes aux vampires pour sucer le sang. Ces dents étaient arrachées au Moyen Âge pour les vendre.
+          <t>Carnivores</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les canines sont particulièrement développées chez les carnivores.
 </t>
         </is>
       </c>
@@ -578,10 +597,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Types de canines</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bovidés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les bovins, les canines sont morphologiquement semblables aux incisives (on considère parfois que le bovin n'en a pas). Chez le porc (et chez d'autres suidés), les canines possèdent une croissance continue, pouvant aboutir à des défenses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Canine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tradition fantastique attribue des canines pointues et proéminentes aux vampires pour sucer le sang. Ces dents étaient arrachées au Moyen Âge pour les vendre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Canine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Autres dents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Incisive
 Prémolaire
